--- a/src/main/java/resources/Testdata.xlsx
+++ b/src/main/java/resources/Testdata.xlsx
@@ -4,40 +4,159 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
+    <sheet name="Emailcheck" sheetId="2" r:id="rId2"/>
+    <sheet name="EmailExiting" sheetId="3" r:id="rId3"/>
+    <sheet name="keyvaluecheck" sheetId="4" r:id="rId4"/>
+    <sheet name="Testing" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>WishlistItems</t>
-  </si>
-  <si>
-    <t>Shirt</t>
-  </si>
-  <si>
-    <t>Tshirt</t>
-  </si>
-  <si>
-    <t>Pant</t>
-  </si>
-  <si>
-    <t>Skirt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>rajan.dubey@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajan@123</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>mr/mrs</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>mobileno</t>
+  </si>
+  <si>
+    <t>addressalias</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Rajan</t>
+  </si>
+  <si>
+    <t>Dubey</t>
+  </si>
+  <si>
+    <t>jgdghf</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>jhgjkhklj</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>emailcheck</t>
+  </si>
+  <si>
+    <t>rajannnn.dubey@gmail.com</t>
+  </si>
+  <si>
+    <t>raaaajan.dubey@gmail.com</t>
+  </si>
+  <si>
+    <t>rajan.dubeyyyy@gmail.com</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajani </t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Dube</t>
+  </si>
+  <si>
+    <t>Harshi</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>data2</t>
+  </si>
+  <si>
+    <t>data3</t>
+  </si>
+  <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS </t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>machinetype</t>
+  </si>
+  <si>
+    <t>desktop</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rajan.dubeyy@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +164,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,13 +201,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,67 +509,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>8976543459</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>8976543459</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>8976543459</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>8976543459</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>8976543459</v>
+      </c>
+      <c r="C9">
+        <v>8976543459</v>
+      </c>
+      <c r="D9">
+        <v>8976543459</v>
+      </c>
+      <c r="E9">
+        <v>8976543459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+</worksheet>
 </file>
--- a/src/main/java/resources/Testdata.xlsx
+++ b/src/main/java/resources/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t>Email</t>
   </si>
@@ -89,9 +89,6 @@
     <t>emailcheck</t>
   </si>
   <si>
-    <t>rajannnn.dubey@gmail.com</t>
-  </si>
-  <si>
     <t>raaaajan.dubey@gmail.com</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>rajan.dubeyy@gmail.com</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>rajann.dubeyyyy@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -557,7 +560,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -592,13 +595,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -627,16 +630,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -662,16 +665,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -708,39 +711,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -750,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,7 +801,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -806,15 +830,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -830,18 +854,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -864,19 +888,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -887,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -904,13 +928,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -924,10 +948,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
